--- a/Projects/CCNAYARMX/Comidas/Data/CCNayarTemplate2020-Fondas Rsr.xlsx
+++ b/Projects/CCNAYARMX/Comidas/Data/CCNayarTemplate2020-Fondas Rsr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="167">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t xml:space="preserve">store_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task/ Template Group</t>
   </si>
   <si>
     <t xml:space="preserve">store-type</t>
@@ -743,7 +740,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -776,14 +773,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -857,10 +846,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,20 +968,20 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.7732793522267"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
@@ -1153,34 +1138,34 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2" t="n">
@@ -1262,7 +1247,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1292,7 +1277,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1346,7 +1331,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1376,7 +1361,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1455,7 +1440,7 @@
       <c r="H16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>53</v>
       </c>
       <c r="J16" s="5"/>
@@ -1479,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="5"/>
     </row>
   </sheetData>
@@ -1507,68 +1492,68 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.7408906882591"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="64.914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.9838056680162"/>
     <col collapsed="false" hidden="false" max="10" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1579,13 +1564,13 @@
       <c r="B2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -1600,13 +1585,13 @@
       <c r="I2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="14" t="n">
+      <c r="J2" s="12" t="n">
         <v>2805</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="16" t="n">
+      <c r="L2" s="14" t="n">
         <v>5</v>
       </c>
       <c r="M2" s="0" t="s">
@@ -1629,13 +1614,13 @@
       <c r="B3" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -1650,11 +1635,11 @@
       <c r="I3" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16" t="n">
+      <c r="K3" s="12"/>
+      <c r="L3" s="14" t="n">
         <v>2.5</v>
       </c>
       <c r="M3" s="0" t="s">
@@ -1677,13 +1662,13 @@
       <c r="B4" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -1698,13 +1683,13 @@
       <c r="I4" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="14" t="n">
+      <c r="J4" s="12" t="n">
         <v>2805</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="16" t="n">
+      <c r="L4" s="14" t="n">
         <v>5</v>
       </c>
       <c r="M4" s="0" t="s">
@@ -1727,13 +1712,13 @@
       <c r="B5" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -1748,11 +1733,11 @@
       <c r="I5" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="12" t="n">
         <v>2804</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="16" t="n">
+      <c r="K5" s="12"/>
+      <c r="L5" s="14" t="n">
         <v>2.5</v>
       </c>
       <c r="M5" s="0" t="s">
@@ -1786,75 +1771,75 @@
   </sheetPr>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1862,10 +1847,10 @@
       <c r="A2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -1961,117 +1946,117 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.7368421052632"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2100,43 +2085,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.1336032388664"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2144,20 +2129,20 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>13</v>
@@ -2166,7 +2151,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>16</v>
@@ -2190,118 +2175,118 @@
   </sheetPr>
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="89.5506072874494"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="68.3400809716599"/>
     <col collapsed="false" hidden="false" max="22" min="20" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,52 +2303,52 @@
         <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>133</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="32" t="s">
-        <v>135</v>
+      <c r="O2" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="R2" s="33" t="s">
+      <c r="Q2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="T2" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="U2" s="0" t="s">
         <v>70</v>
@@ -2375,22 +2360,22 @@
         <v>5</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="Z2" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AA2" s="34" t="s">
+      <c r="AB2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AB2" s="34" t="s">
+      <c r="AC2" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,52 +2392,52 @@
         <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>133</v>
+      <c r="I3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="L3" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="31" t="s">
+      <c r="L3" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="32" t="s">
-        <v>135</v>
+      <c r="O3" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="R3" s="33" t="s">
+      <c r="Q3" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="T3" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="U3" s="0" t="s">
         <v>70</v>
@@ -2464,22 +2449,22 @@
         <v>4</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA3" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AB3" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AC3" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="AC3" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,52 +2481,52 @@
         <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>133</v>
+      <c r="I4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="L4" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M4" s="31" t="s">
+      <c r="L4" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="32" t="s">
-        <v>135</v>
+      <c r="O4" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="R4" s="33" t="s">
+      <c r="Q4" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="T4" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="U4" s="0" t="s">
         <v>70</v>
@@ -2553,22 +2538,22 @@
         <v>4</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA4" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AB4" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AB4" s="34" t="s">
+      <c r="AC4" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="AC4" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,52 +2570,52 @@
         <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>133</v>
+      <c r="I5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="L5" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M5" s="31" t="s">
+      <c r="L5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="32" t="s">
-        <v>135</v>
+      <c r="O5" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="R5" s="33" t="s">
+      <c r="Q5" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="T5" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="U5" s="0" t="s">
         <v>70</v>
@@ -2642,22 +2627,22 @@
         <v>3</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA5" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AB5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AB5" s="34" t="s">
+      <c r="AC5" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,52 +2659,52 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>133</v>
+      <c r="J6" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M6" s="31" t="s">
+      <c r="L6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="32" t="s">
-        <v>135</v>
+      <c r="O6" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="R6" s="33" t="s">
+      <c r="Q6" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="S6" s="34" t="s">
+      <c r="T6" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="U6" s="0" t="s">
         <v>70</v>
@@ -2731,22 +2716,22 @@
         <v>3</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Z6" s="34" t="s">
+      <c r="Z6" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA6" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AA6" s="34" t="s">
+      <c r="AB6" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AB6" s="34" t="s">
+      <c r="AC6" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,52 +2748,52 @@
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>133</v>
+      <c r="I7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="31" t="s">
+      <c r="L7" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="32" t="s">
-        <v>135</v>
+      <c r="O7" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="R7" s="33" t="s">
+      <c r="Q7" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="S7" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="34" t="s">
+      <c r="T7" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="U7" s="0" t="s">
         <v>70</v>
@@ -2820,22 +2805,22 @@
         <v>2</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Z7" s="34" t="s">
+      <c r="Z7" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA7" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AA7" s="34" t="s">
+      <c r="AB7" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AB7" s="34" t="s">
+      <c r="AC7" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="AC7" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,52 +2837,52 @@
         <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>133</v>
+        <v>143</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="L8" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="31" t="s">
+      <c r="L8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O8" s="32" t="s">
-        <v>135</v>
+      <c r="O8" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="R8" s="33" t="s">
+      <c r="Q8" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="S8" s="34" t="s">
+      <c r="T8" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="U8" s="0" t="s">
         <v>70</v>
@@ -2909,22 +2894,22 @@
         <v>2</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" s="34" t="s">
+      <c r="Z8" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA8" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AA8" s="34" t="s">
+      <c r="AB8" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AB8" s="34" t="s">
+      <c r="AC8" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="AC8" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2946,17 +2931,17 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -2979,41 +2964,41 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>127</v>
+      <c r="R1" s="32" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,32 +3020,32 @@
       <c r="F2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="33" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>58</v>
       </c>
       <c r="N2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>92</v>
@@ -3097,48 +3082,48 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="35" t="s">
         <v>156</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,13 +3146,13 @@
         <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,7 +3165,7 @@
       <c r="C3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3193,10 +3178,10 @@
         <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,14 +3203,14 @@
       <c r="F4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>162</v>
+      <c r="G4" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,14 +3232,14 @@
       <c r="F5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>163</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,14 +3261,14 @@
       <c r="F6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>165</v>
+      <c r="G6" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,24 +3287,24 @@
       <c r="F7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="10"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="10"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="8"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="4"/>

--- a/Projects/CCNAYARMX/Comidas/Data/CCNayarTemplate2020-Fondas Rsr.xlsx
+++ b/Projects/CCNAYARMX/Comidas/Data/CCNayarTemplate2020-Fondas Rsr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="169">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -413,10 +413,52 @@
     <t xml:space="preserve">score</t>
   </si>
   <si>
-    <t xml:space="preserve">Portafolio Frio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Producto frío</t>
+    <t xml:space="preserve">Chico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 brand + COCA-COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCA-COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246, 247, 248, 249, 250, 251, 255, 295, 309, 322, 352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCA-COLA LIGHT,COCA COLA SIN AZUCAR,SIDRAL MUNDET,FANTA ORANGE,FANTA SABORES,SPRITE,FRESCA,VALLE FRUT,FUZE TEA,CIEL,CIEL EXPRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check each brand and COUNTIF(facings of unique brand &gt;= 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count(dataset_b_brands)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent of total points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 brand + COCA-COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246, 247, 248, 249, 250, 251, 255, 295, 309, 322, 354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 brand + COCA-COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246, 247, 248, 249, 250, 251, 255, 295, 309, 322, 353</t>
   </si>
   <si>
     <t xml:space="preserve">Grande</t>
@@ -425,46 +467,10 @@
     <t xml:space="preserve">5 brand + COCA-COLA</t>
   </si>
   <si>
-    <t xml:space="preserve">brand_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCA-COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246,247,248,249,250,251,255,295,309,322,351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCA-COLA LIGHT,COCA COLA SIN AZUCAR,SIDRAL MUNDET,FANTA ORANGE,FANTA SABORES,SPRITE,FRESCA,VALLE FRUT,FUZE TEA,CIEL,CIEL EXPRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check each brand and COUNTIF(facings of unique brand &gt;= 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count(dataset_b_brands)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of total points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 brand + COCA-COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano,Chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 brand + COCA-COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 brand + COCA-COLA</t>
+    <t xml:space="preserve">246, 247, 248, 249, 250, 251, 255, 295, 309, 322, 351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano</t>
   </si>
   <si>
     <t xml:space="preserve">a_test</t>
@@ -485,7 +491,7 @@
     <t xml:space="preserve">1494,1495,1496,2084</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciel_NR_1_L,Ciel_NR_600_ml,Ciel_NR_1.5_L,Ciel_Natural_NR_1_L</t>
+    <t xml:space="preserve">Ciel_NR_1_L, Ciel_NR_600_ml, Ciel_NR_1.5_L, Ciel_Natural_NR_1_L</t>
   </si>
   <si>
     <t xml:space="preserve">Component KPIs</t>
@@ -500,7 +506,7 @@
     <t xml:space="preserve">Scoring Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Visible-Fondas-Rsr,Llenado al 70%-Fondas-Rsr,Respeto-Fondas-Rsr</t>
+    <t xml:space="preserve">Visible-Fondas-Rsr, Llenado al 70%-Fondas-Rsr, Respeto-Fondas-Rsr</t>
   </si>
   <si>
     <t xml:space="preserve">sum</t>
@@ -740,7 +746,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,26 +787,38 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -839,6 +857,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -968,20 +990,22 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.412955465587"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
@@ -1019,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -1051,7 +1075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -1083,7 +1107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -1113,7 +1137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -1137,7 +1161,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -1161,7 +1185,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -1191,7 +1215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -1215,7 +1239,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -1239,7 +1263,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -1269,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -1299,7 +1323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
@@ -1323,7 +1347,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
@@ -1353,7 +1377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
@@ -1383,7 +1407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
@@ -1415,7 +1439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
@@ -1445,7 +1469,7 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
@@ -1485,79 +1509,88 @@
   </sheetPr>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.9838056680162"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="10" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>9</v>
       </c>
@@ -1570,7 +1603,7 @@
       <c r="D2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -1585,13 +1618,13 @@
       <c r="I2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="12" t="n">
+      <c r="J2" s="14" t="n">
         <v>2805</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="16" t="n">
         <v>5</v>
       </c>
       <c r="M2" s="0" t="s">
@@ -1607,7 +1640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>10</v>
       </c>
@@ -1620,7 +1653,7 @@
       <c r="D3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -1635,11 +1668,11 @@
       <c r="I3" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="14" t="n">
+      <c r="K3" s="17"/>
+      <c r="L3" s="16" t="n">
         <v>2.5</v>
       </c>
       <c r="M3" s="0" t="s">
@@ -1655,7 +1688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>12</v>
       </c>
@@ -1668,7 +1701,7 @@
       <c r="D4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -1683,13 +1716,13 @@
       <c r="I4" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="14" t="n">
         <v>2805</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="14" t="n">
+      <c r="L4" s="16" t="n">
         <v>5</v>
       </c>
       <c r="M4" s="0" t="s">
@@ -1705,7 +1738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>13</v>
       </c>
@@ -1718,7 +1751,7 @@
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -1733,11 +1766,11 @@
       <c r="I5" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="12" t="n">
-        <v>2804</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="14" t="n">
+      <c r="J5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16" t="n">
         <v>2.5</v>
       </c>
       <c r="M5" s="0" t="s">
@@ -1772,74 +1805,74 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7044534412956"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1847,7 +1880,7 @@
       <c r="A2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1946,117 +1979,121 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="n">
+    <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="15" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2082,66 +2119,69 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="112.797570850202"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>104</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -2173,123 +2213,135 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.1578947368421"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="68.3400809716599"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="28" width="9"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="28" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="28" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="28" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="28" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="28" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>6</v>
       </c>
@@ -2303,82 +2355,82 @@
         <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="28" t="n">
+        <v>245</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="M2" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>245</v>
-      </c>
-      <c r="L2" s="28" t="s">
+      <c r="P2" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="S2" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" s="0" t="n">
+      <c r="W2" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="S2" s="31" t="s">
+      <c r="Z2" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="AA2" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="U2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="31" t="s">
+      <c r="AB2" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AA2" s="31" t="s">
+      <c r="AC2" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="AB2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>6</v>
       </c>
@@ -2386,88 +2438,88 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="28" t="n">
+        <v>245</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>245</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" s="28" t="s">
+      <c r="P3" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" s="0" t="n">
+      <c r="W3" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="X3" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="R3" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="S3" s="31" t="s">
+      <c r="Y3" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="AA3" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="U3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="31" t="s">
+      <c r="AB3" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AC3" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="AB3" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC3" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>6</v>
       </c>
@@ -2475,88 +2527,88 @@
         <v>27</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="28" t="n">
+        <v>245</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <v>245</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="28" t="s">
+      <c r="P4" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" s="0" t="n">
+      <c r="W4" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="S4" s="31" t="s">
+      <c r="Z4" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="AA4" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="U4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="31" t="s">
+      <c r="AB4" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AA4" s="31" t="s">
+      <c r="AC4" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC4" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>6</v>
       </c>
@@ -2564,88 +2616,88 @@
         <v>27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J5" s="27" t="s">
+      <c r="K5" s="28" t="n">
+        <v>245</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>245</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" s="28" t="s">
+      <c r="P5" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P5" s="0" t="n">
+      <c r="W5" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y5" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="S5" s="31" t="s">
+      <c r="Z5" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="AA5" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="U5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="31" t="s">
+      <c r="AB5" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AC5" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="AB5" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>6</v>
       </c>
@@ -2653,88 +2705,88 @@
         <v>27</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="28" t="n">
+        <v>245</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>245</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="28" t="s">
+      <c r="P6" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="W6" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="S6" s="31" t="s">
+      <c r="Z6" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="AA6" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="U6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="31" t="s">
+      <c r="AB6" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AA6" s="31" t="s">
+      <c r="AC6" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="AB6" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
@@ -2742,88 +2794,88 @@
         <v>27</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="27" t="s">
+      <c r="K7" s="28" t="n">
+        <v>245</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>245</v>
-      </c>
-      <c r="L7" s="28" t="s">
+      <c r="P7" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="S7" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="0" t="n">
+      <c r="W7" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="S7" s="31" t="s">
+      <c r="Z7" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="AA7" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="U7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="31" t="s">
+      <c r="AB7" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AA7" s="31" t="s">
+      <c r="AC7" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="AB7" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC7" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
@@ -2831,85 +2883,352 @@
         <v>27</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="28" t="n">
+        <v>245</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="W8" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA8" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB8" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <v>245</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="W9" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA9" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB9" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="27" t="s">
+      <c r="J10" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="28" t="n">
+        <v>245</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="P10" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="W10" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA10" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB10" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="28" t="n">
         <v>245</v>
       </c>
-      <c r="L8" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" s="28" t="s">
+      <c r="L11" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N11" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O11" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="T11" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="X11" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="R8" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="S8" s="31" t="s">
+      <c r="Y11" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="AA11" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="U8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="31" t="s">
+      <c r="AB11" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AA8" s="31" t="s">
+      <c r="AC11" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="AB8" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC8" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2934,18 +3253,23 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2964,45 +3288,45 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="32" t="s">
+      <c r="J1" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="R1" s="32" t="s">
+      <c r="P1" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="36" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="81.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="n">
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3020,11 +3344,11 @@
       <c r="F2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="37" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>25</v>
@@ -3036,16 +3360,16 @@
         <v>80</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>58</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>92</v>
@@ -3075,242 +3399,244 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="G1" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="38" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>26</v>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>26</v>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="31" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>26</v>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>26</v>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>165</v>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>167</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="4"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCNAYARMX/Comidas/Data/CCNayarTemplate2020-Fondas Rsr.xlsx
+++ b/Projects/CCNAYARMX/Comidas/Data/CCNayarTemplate2020-Fondas Rsr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="164">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">Proportional</t>
   </si>
   <si>
-    <t xml:space="preserve">Puntos de conexion-Fondas-Rsr</t>
+    <t xml:space="preserve">Puntos de Conexion-Fondas-Rsr</t>
   </si>
   <si>
     <t xml:space="preserve">Comunicacion Exterior-Fondas-Rsr</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">Producto Frío</t>
   </si>
   <si>
-    <t xml:space="preserve">POS,SKU,Other</t>
+    <t xml:space="preserve">POS,SKU,Irrelevant,Other</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer_name</t>
@@ -317,13 +317,7 @@
     <t xml:space="preserve">Ignore Stacking</t>
   </si>
   <si>
-    <t xml:space="preserve">¿La división de frentes de KO entre la suma de frentes KO, competencia e invasión es mayor que 75% en los enfriadores de KO?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75% of space in cooler must be TCCC products. Coolers must have lest than 25% of Empties, Competition, and Irrevalent tags of total tags in visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75-100</t>
+    <t xml:space="preserve">70% of space in cooler must be TCCC products. Coolers must have lest than 30% of Empties, Competition, and Irrevalent tags of total tags in visit</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Description</t>
@@ -428,7 +422,7 @@
     <t xml:space="preserve">Facings</t>
   </si>
   <si>
-    <t xml:space="preserve">246, 247, 248, 249, 250, 251, 255, 295, 309, 322, 352</t>
+    <t xml:space="preserve">246, 247, 248, 249, 250, 251, 255, 295, 309, 322, 351</t>
   </si>
   <si>
     <t xml:space="preserve">COCA-COLA LIGHT,COCA COLA SIN AZUCAR,SIDRAL MUNDET,FANTA ORANGE,FANTA SABORES,SPRITE,FRESCA,VALLE FRUT,FUZE TEA,CIEL,CIEL EXPRIM</t>
@@ -452,24 +446,15 @@
     <t xml:space="preserve">2 brand + COCA-COLA</t>
   </si>
   <si>
-    <t xml:space="preserve">246, 247, 248, 249, 250, 251, 255, 295, 309, 322, 354</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 brand + COCA-COLA</t>
   </si>
   <si>
-    <t xml:space="preserve">246, 247, 248, 249, 250, 251, 255, 295, 309, 322, 353</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grande</t>
   </si>
   <si>
     <t xml:space="preserve">5 brand + COCA-COLA</t>
   </si>
   <si>
-    <t xml:space="preserve">246, 247, 248, 249, 250, 251, 255, 295, 309, 322, 351</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mediano</t>
   </si>
   <si>
@@ -518,19 +503,19 @@
     <t xml:space="preserve">Score based on store size and number of additional brands. See Distribution Tab for scoring breakdown and constraints</t>
   </si>
   <si>
+    <t xml:space="preserve">Comunicacion Paquete Exterior-Fondas-Rsr,Comunicacion Marca Exterior-Fondas-Rsr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of points awarded for each component kpi. TAKE MAX SCORE of child KPIs and apply to KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicacion Paquete Interior-Fondas-Rsr,Comunicacion Marca Interior-Fondas-Rsr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comunicacion Exterior-Fondas-Rsr,Comunicacion Interior-Fondas-Rsr,Exclusividad Industria-Fondas-Rsr</t>
   </si>
   <si>
-    <t xml:space="preserve">Comunicacion Paquete Exterior-Fondas-Rsr,Comunicacion Marca Exterior-Fondas-Rsr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of points awarded for each component kpi. TAKE MAX SCORE of child KPIs and apply to KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunicacion Paquete Interior-Fondas-Rsr,Comunicacion Marca Interior-Fondas-Rsr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriador-Fondas-Rsr,Portafolio Frio-Fondas-Rsr,Puntos de conexion-Fondas-Rsr,Bonificacion-Fondas-Rsr</t>
+    <t xml:space="preserve">Enfriador-Fondas-Rsr,Portafolio Frio-Fondas-Rsr,Puntos de Conexion-Fondas-Rsr,Bonificacion-Fondas-Rsr</t>
   </si>
   <si>
     <t xml:space="preserve">aggregation of parent kpis to create store score</t>
@@ -545,7 +530,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -617,6 +602,12 @@
       <name val="VAG Rounded Std Light"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -746,7 +737,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -905,6 +896,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -990,22 +985,22 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.7732793522267"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
@@ -1509,28 +1504,28 @@
   </sheetPr>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.8785425101215"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="10" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1805,24 +1800,24 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7732793522267"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.0566801619433"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1980,18 +1975,18 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.1295546558704"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -2048,7 +2043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="n">
         <v>2</v>
       </c>
@@ -2056,7 +2051,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>20</v>
@@ -2068,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>90</v>
@@ -2087,8 +2082,8 @@
       <c r="N2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>98</v>
+      <c r="O2" s="27" t="n">
+        <v>70</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>31</v>
@@ -2116,20 +2111,20 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="112.797570850202"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="115.793522267207"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -2150,16 +2145,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>8</v>
@@ -2173,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
@@ -2182,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>13</v>
@@ -2191,7 +2186,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>16</v>
@@ -2215,10 +2210,10 @@
   </sheetPr>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="S6" activeCellId="0" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2226,27 +2221,27 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="28" width="9"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="28" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="28" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="28" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="28" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="74.3400809716599"/>
     <col collapsed="false" hidden="false" max="22" min="20" style="28" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="28" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="28" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="28" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="10.6032388663968"/>
@@ -2275,73 +2270,73 @@
         <v>56</v>
       </c>
       <c r="H1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="S1" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="T1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="Z1" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AB1" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AC1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC1" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>6</v>
       </c>
@@ -2364,19 +2359,19 @@
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="K2" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M2" s="32" t="s">
         <v>92</v>
@@ -2385,22 +2380,22 @@
         <v>1</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P2" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R2" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>135</v>
       </c>
       <c r="U2" s="28" t="s">
         <v>70</v>
@@ -2412,25 +2407,25 @@
         <v>4</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y2" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z2" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA2" s="35" t="s">
+      <c r="AC2" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AB2" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>6</v>
       </c>
@@ -2453,19 +2448,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="K3" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M3" s="32" t="s">
         <v>92</v>
@@ -2474,22 +2469,22 @@
         <v>1</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P3" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U3" s="28" t="s">
         <v>70</v>
@@ -2501,25 +2496,25 @@
         <v>2</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y3" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z3" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA3" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA3" s="35" t="s">
+      <c r="AC3" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AB3" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC3" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>6</v>
       </c>
@@ -2542,19 +2537,19 @@
         <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="K4" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M4" s="32" t="s">
         <v>92</v>
@@ -2563,22 +2558,22 @@
         <v>1</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U4" s="28" t="s">
         <v>70</v>
@@ -2590,25 +2585,25 @@
         <v>3</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y4" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z4" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA4" s="35" t="s">
+      <c r="AC4" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AB4" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC4" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>6</v>
       </c>
@@ -2631,19 +2626,19 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K5" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>92</v>
@@ -2652,22 +2647,22 @@
         <v>1</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P5" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U5" s="28" t="s">
         <v>70</v>
@@ -2679,25 +2674,25 @@
         <v>5</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y5" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z5" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA5" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA5" s="35" t="s">
+      <c r="AC5" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AB5" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>6</v>
       </c>
@@ -2720,19 +2715,19 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K6" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>92</v>
@@ -2741,22 +2736,22 @@
         <v>1</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P6" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U6" s="28" t="s">
         <v>70</v>
@@ -2768,25 +2763,25 @@
         <v>4</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y6" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z6" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA6" s="35" t="s">
+      <c r="AC6" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AB6" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
@@ -2809,19 +2804,19 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>92</v>
@@ -2830,22 +2825,22 @@
         <v>1</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P7" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R7" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="S7" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>135</v>
       </c>
       <c r="U7" s="28" t="s">
         <v>70</v>
@@ -2857,25 +2852,25 @@
         <v>3</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z7" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA7" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB7" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA7" s="35" t="s">
+      <c r="AC7" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AB7" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC7" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
@@ -2898,19 +2893,19 @@
         <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K8" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M8" s="32" t="s">
         <v>92</v>
@@ -2919,22 +2914,22 @@
         <v>1</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P8" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U8" s="28" t="s">
         <v>70</v>
@@ -2946,25 +2941,25 @@
         <v>2</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y8" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z8" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA8" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB8" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AC8" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AB8" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC8" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>6</v>
       </c>
@@ -2987,19 +2982,19 @@
         <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K9" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M9" s="32" t="s">
         <v>92</v>
@@ -3008,22 +3003,22 @@
         <v>1</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P9" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U9" s="28" t="s">
         <v>70</v>
@@ -3035,25 +3030,25 @@
         <v>3</v>
       </c>
       <c r="X9" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y9" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z9" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA9" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB9" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA9" s="35" t="s">
+      <c r="AC9" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AB9" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
@@ -3076,19 +3071,19 @@
         <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K10" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M10" s="32" t="s">
         <v>92</v>
@@ -3097,22 +3092,22 @@
         <v>1</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P10" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R10" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>135</v>
       </c>
       <c r="U10" s="28" t="s">
         <v>70</v>
@@ -3124,25 +3119,25 @@
         <v>4</v>
       </c>
       <c r="X10" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y10" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z10" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA10" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB10" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA10" s="35" t="s">
+      <c r="AC10" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AB10" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC10" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>6</v>
       </c>
@@ -3165,19 +3160,19 @@
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K11" s="28" t="n">
         <v>245</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M11" s="32" t="s">
         <v>92</v>
@@ -3186,22 +3181,22 @@
         <v>1</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P11" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T11" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U11" s="28" t="s">
         <v>70</v>
@@ -3213,22 +3208,22 @@
         <v>2</v>
       </c>
       <c r="X11" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y11" s="28" t="n">
         <v>2</v>
       </c>
       <c r="Z11" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA11" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB11" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="AA11" s="35" t="s">
+      <c r="AC11" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="AB11" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC11" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3249,22 +3244,22 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="28" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.6032388663968"/>
   </cols>
@@ -3292,37 +3287,37 @@
         <v>80</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>117</v>
-      </c>
       <c r="P1" s="36" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="81.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3348,28 +3343,28 @@
         <v>88</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>58</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>92</v>
@@ -3402,21 +3397,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topRight" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.2024291497976"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -3440,16 +3435,16 @@
         <v>56</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3472,13 +3467,13 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,52 +3499,52 @@
         <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>25</v>
+      <c r="D4" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>163</v>
+      <c r="G4" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="40" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -3559,45 +3554,45 @@
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
+      <c r="D6" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>166</v>
+      <c r="G6" s="35" t="s">
+        <v>161</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>16</v>
       </c>
@@ -3614,13 +3609,13 @@
         <v>12</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
